--- a/pre_cri/base_real_ajustada.xlsx
+++ b/pre_cri/base_real_ajustada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/aya/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="947" documentId="8_{774FBEC7-1179-446C-9197-6C19C00D8180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B637DA1-7602-4B9A-A8A1-5BDC48292A9A}"/>
+  <xr:revisionPtr revIDLastSave="955" documentId="8_{774FBEC7-1179-446C-9197-6C19C00D8180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A436756D-F4D6-4E46-B20C-D8D5DB4D19E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="845" firstSheet="1" activeTab="10" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="30585" yWindow="0" windowWidth="36720" windowHeight="14940" tabRatio="845" firstSheet="1" activeTab="10" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="informacoes_preliminares" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="549">
   <si>
     <t>ÁREA DE USO COMUM</t>
   </si>
@@ -1881,6 +1881,30 @@
   </si>
   <si>
     <t>numeros_unidades</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 01</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 02</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 03</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 04</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 05</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 06</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 07</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 08</t>
   </si>
 </sst>
 </file>
@@ -3091,13 +3115,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D588FE0-1285-44F2-BF94-103261262ED6}">
-  <sheetPr syncVertical="1" syncRef="H1" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A10" transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="A6:M6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3942,7 +3966,7 @@
         <v>355</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>152</v>
+        <v>541</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3977,7 +4001,7 @@
         <v>355</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>153</v>
+        <v>542</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -4012,7 +4036,7 @@
         <v>355</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>178</v>
+        <v>543</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -4047,7 +4071,7 @@
         <v>355</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>179</v>
+        <v>544</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -4082,7 +4106,7 @@
         <v>355</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>180</v>
+        <v>545</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -4117,7 +4141,7 @@
         <v>355</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>181</v>
+        <v>546</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -4152,7 +4176,7 @@
         <v>355</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>182</v>
+        <v>547</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -4187,7 +4211,7 @@
         <v>355</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>294</v>
+        <v>548</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>

--- a/pre_cri/base_real_ajustada.xlsx
+++ b/pre_cri/base_real_ajustada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="955" documentId="8_{774FBEC7-1179-446C-9197-6C19C00D8180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A436756D-F4D6-4E46-B20C-D8D5DB4D19E9}"/>
+  <xr:revisionPtr revIDLastSave="966" documentId="8_{774FBEC7-1179-446C-9197-6C19C00D8180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518008B3-1DEB-44A5-9AAE-822FAFDA1B26}"/>
   <bookViews>
-    <workbookView xWindow="30585" yWindow="0" windowWidth="36720" windowHeight="14940" tabRatio="845" firstSheet="1" activeTab="10" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="30750" yWindow="1260" windowWidth="29010" windowHeight="14940" tabRatio="845" firstSheet="1" activeTab="10" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="informacoes_preliminares" sheetId="11" r:id="rId1"/>
@@ -3115,13 +3115,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D588FE0-1285-44F2-BF94-103261262ED6}">
-  <sheetPr syncVertical="1" syncRef="A10" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A13" transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3302,6 +3302,9 @@
       <c r="H7" s="7">
         <v>3.0692781599567839E-3</v>
       </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7">
         <v>27.244731000000002</v>
       </c>
@@ -3340,6 +3343,9 @@
       <c r="H8" s="7">
         <v>3.1971736168058462E-3</v>
       </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7">
         <v>28.379929000000001</v>
       </c>
@@ -3378,6 +3384,9 @@
       <c r="H9" s="7">
         <v>3.4102972441508311E-3</v>
       </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9" s="7">
         <v>30.271922</v>
       </c>
@@ -3416,6 +3425,9 @@
       <c r="H10" s="7">
         <v>3.5523441949773691E-3</v>
       </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7">
         <v>31.533245999999998</v>
       </c>
@@ -3454,6 +3466,9 @@
       <c r="H11" s="7">
         <v>6.138449917703211E-3</v>
       </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
       <c r="J11" s="7">
         <v>54.489448999999993</v>
       </c>
@@ -3492,6 +3507,9 @@
       <c r="H12" s="7">
         <v>6.3942408314013365E-3</v>
       </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
       <c r="J12" s="7">
         <v>56.759846000000003</v>
       </c>
@@ -3530,6 +3548,9 @@
       <c r="H13" s="7">
         <v>7.1045819877443806E-3</v>
       </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7">
         <v>63.066481000000003</v>
       </c>
@@ -3568,6 +3589,9 @@
       <c r="H14" s="7">
         <v>6.5197954396225442E-3</v>
       </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7">
         <v>51.803854999999999</v>
       </c>
@@ -3606,6 +3630,9 @@
       <c r="H15" s="7">
         <v>1.2453633906809328E-2</v>
       </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
       <c r="J15" s="7">
         <v>99.436990999999992</v>
       </c>
@@ -3644,6 +3671,9 @@
       <c r="H16" s="7">
         <v>1.2495556377689969E-2</v>
       </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
       <c r="J16" s="7">
         <v>99.735532000000006</v>
       </c>
@@ -3682,6 +3712,9 @@
       <c r="H17" s="7">
         <v>1.2528115454059196E-2</v>
       </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7">
         <v>99.966631999999976</v>
       </c>
@@ -3720,6 +3753,9 @@
       <c r="H18" s="7">
         <v>1.279337616447909E-2</v>
       </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
       <c r="J18" s="7">
         <v>102.30448200000001</v>
       </c>
@@ -3758,6 +3794,9 @@
       <c r="H19" s="7">
         <v>1.2558865692852358E-2</v>
       </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
       <c r="J19" s="7">
         <v>100.185384</v>
       </c>
@@ -3796,6 +3835,9 @@
       <c r="H20" s="7">
         <v>1.4606576231171996E-2</v>
       </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="J20" s="7">
         <v>109.95935900000001</v>
       </c>
@@ -3834,6 +3876,9 @@
       <c r="H21" s="7">
         <v>8.3313994731600959E-3</v>
       </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
       <c r="J21" s="7">
         <v>65.296807000000001</v>
       </c>
@@ -3872,6 +3917,9 @@
       <c r="H22" s="7">
         <v>1.4496981954504331E-2</v>
       </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
       <c r="J22" s="7">
         <v>109.17952</v>
       </c>
@@ -3910,6 +3958,9 @@
       <c r="H23" s="7">
         <v>1.2707190374089955E-2</v>
       </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
       <c r="J23" s="7">
         <v>101.69081099999998</v>
       </c>
@@ -3948,6 +3999,9 @@
       <c r="H24" s="7">
         <v>1.2814656606550482E-2</v>
       </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
       <c r="J24" s="7">
         <v>102.45578</v>
       </c>
@@ -3974,6 +4028,9 @@
       <c r="D25" s="7">
         <v>423.53999999999996</v>
       </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
       <c r="F25" s="7">
         <v>10.814574</v>
       </c>
@@ -3982,6 +4039,9 @@
       </c>
       <c r="H25" s="7">
         <v>0.20797338257325021</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
       </c>
       <c r="J25" s="7">
         <v>434.35457399999996</v>
@@ -4009,6 +4069,9 @@
       <c r="D26" s="7">
         <v>348.76</v>
       </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
       <c r="F26" s="7">
         <v>8.9051670000000005</v>
       </c>
@@ -4017,6 +4080,9 @@
       </c>
       <c r="H26" s="7">
         <v>0.17125387590147373</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
       </c>
       <c r="J26" s="7">
         <v>357.665167</v>
@@ -4044,6 +4110,9 @@
       <c r="D27" s="7">
         <v>67.260000000000005</v>
       </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
       <c r="F27" s="7">
         <v>1.7173959999999999</v>
       </c>
@@ -4052,6 +4121,9 @@
       </c>
       <c r="H27" s="7">
         <v>3.3026977435575845E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
       </c>
       <c r="J27" s="7">
         <v>68.977395999999999</v>
@@ -4079,6 +4151,9 @@
       <c r="D28" s="7">
         <v>27.09</v>
       </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
       <c r="F28" s="7">
         <v>0.69171199999999999</v>
       </c>
@@ -4087,6 +4162,9 @@
       </c>
       <c r="H28" s="7">
         <v>1.3302209989664264E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
       </c>
       <c r="J28" s="7">
         <v>27.781711999999999</v>
@@ -4114,6 +4192,9 @@
       <c r="D29" s="7">
         <v>38.18</v>
       </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
       <c r="F29" s="7">
         <v>0.974885</v>
       </c>
@@ -4122,6 +4203,9 @@
       </c>
       <c r="H29" s="7">
         <v>1.8747866076716722E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
       </c>
       <c r="J29" s="7">
         <v>39.154885</v>
@@ -4149,6 +4233,9 @@
       <c r="D30" s="7">
         <v>28.73</v>
       </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
       <c r="F30" s="7">
         <v>0.73358599999999996</v>
       </c>
@@ -4157,6 +4244,9 @@
       </c>
       <c r="H30" s="7">
         <v>1.4107468441161784E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
       </c>
       <c r="J30" s="7">
         <v>29.463585999999999</v>
@@ -4184,6 +4274,9 @@
       <c r="D31" s="7">
         <v>523.80999999999995</v>
       </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
       <c r="F31" s="7">
         <v>13.374847000000001</v>
       </c>
@@ -4192,6 +4285,9 @@
       </c>
       <c r="H31" s="7">
         <v>0.257209583202685</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
       </c>
       <c r="J31" s="7">
         <v>537.18484699999999</v>
@@ -4219,6 +4315,9 @@
       <c r="D32" s="7">
         <v>579.14</v>
       </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
       <c r="F32" s="7">
         <v>14.787632</v>
       </c>
@@ -4227,6 +4326,9 @@
       </c>
       <c r="H32" s="7">
         <v>0.28437863637947253</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
       </c>
       <c r="J32" s="7">
         <v>593.92763200000002</v>
@@ -4254,6 +4356,9 @@
       <c r="D33" s="7">
         <v>28.6</v>
       </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
       <c r="F33" s="7">
         <v>14.106770000000001</v>
       </c>
@@ -4292,6 +4397,9 @@
       <c r="D34" s="7">
         <v>25.68</v>
       </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
       <c r="F34" s="7">
         <v>12.593784000000001</v>
       </c>
@@ -4330,6 +4438,9 @@
       <c r="D35" s="7">
         <v>25.45</v>
       </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
       <c r="F35" s="7">
         <v>12.504268</v>
       </c>
@@ -4368,6 +4479,9 @@
       <c r="D36" s="7">
         <v>25.21</v>
       </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
       <c r="F36" s="7">
         <v>12.353849</v>
       </c>
@@ -4406,6 +4520,9 @@
       <c r="D37" s="7">
         <v>28.71</v>
       </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
       <c r="F37" s="7">
         <v>14.149068</v>
       </c>
@@ -4444,6 +4561,9 @@
       <c r="D38" s="7">
         <v>28.36</v>
       </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
       <c r="F38" s="7">
         <v>14.012017999999999</v>
       </c>
@@ -4482,6 +4602,9 @@
       <c r="D39" s="7">
         <v>28.48</v>
       </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
       <c r="F39" s="7">
         <v>14.059553000000001</v>
       </c>
@@ -4520,6 +4643,9 @@
       <c r="D40" s="7">
         <v>28.93</v>
       </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
       <c r="F40" s="7">
         <v>14.372864999999999</v>
       </c>
@@ -4558,6 +4684,9 @@
       <c r="D41" s="7">
         <v>25.56</v>
       </c>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
       <c r="F41" s="7">
         <v>12.633137999999999</v>
       </c>
@@ -4596,6 +4725,9 @@
       <c r="D42" s="7">
         <v>24.730000000000004</v>
       </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
       <c r="F42" s="7">
         <v>12.231809</v>
       </c>
@@ -4634,6 +4766,9 @@
       <c r="D43" s="7">
         <v>24.28</v>
       </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
       <c r="F43" s="7">
         <v>12.020097999999999</v>
       </c>
@@ -4672,6 +4807,9 @@
       <c r="D44" s="7">
         <v>37.880000000000003</v>
       </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
       <c r="F44" s="7">
         <v>18.537103000000002</v>
       </c>
@@ -4710,6 +4848,9 @@
       <c r="D45" s="7">
         <v>37.14</v>
       </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
       <c r="F45" s="7">
         <v>18.201509999999999</v>
       </c>
@@ -4748,6 +4889,9 @@
       <c r="D46" s="7">
         <v>25.370000000000005</v>
       </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
       <c r="F46" s="7">
         <v>12.559660000000001</v>
       </c>
@@ -4786,6 +4930,9 @@
       <c r="D47" s="7">
         <v>37.65</v>
       </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
       <c r="F47" s="7">
         <v>18.446486</v>
       </c>
@@ -4824,6 +4971,9 @@
       <c r="D48" s="7">
         <v>37.409999999999997</v>
       </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
       <c r="F48" s="7">
         <v>18.313448000000001</v>
       </c>
@@ -4862,6 +5012,9 @@
       <c r="D49" s="7">
         <v>24.450000000000003</v>
       </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
       <c r="F49" s="7">
         <v>12.085179999999999</v>
       </c>
@@ -4900,6 +5053,9 @@
       <c r="D50" s="7">
         <v>54.21</v>
       </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
       <c r="F50" s="7">
         <v>27.118888999999999</v>
       </c>
@@ -4938,6 +5094,9 @@
       <c r="D51" s="7">
         <v>49.25</v>
       </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
       <c r="F51" s="7">
         <v>24.557055999999999</v>
       </c>
@@ -4976,6 +5135,9 @@
       <c r="D52" s="7">
         <v>48.65</v>
       </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
       <c r="F52" s="7">
         <v>24.252870999999999</v>
       </c>
@@ -5014,6 +5176,9 @@
       <c r="D53" s="7">
         <v>28.990000000000002</v>
       </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
       <c r="F53" s="7">
         <v>14.404283999999999</v>
       </c>
@@ -5052,6 +5217,9 @@
       <c r="D54" s="7">
         <v>48.83</v>
       </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
       <c r="F54" s="7">
         <v>24.324382</v>
       </c>
@@ -5090,6 +5258,9 @@
       <c r="D55" s="7">
         <v>54.04</v>
       </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
       <c r="F55" s="7">
         <v>27.052615999999997</v>
       </c>
@@ -5128,6 +5299,9 @@
       <c r="D56" s="7">
         <v>54.31</v>
       </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
       <c r="F56" s="7">
         <v>27.159291</v>
       </c>
@@ -5166,6 +5340,9 @@
       <c r="D57" s="7">
         <v>54.13</v>
       </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
       <c r="F57" s="7">
         <v>27.087781</v>
       </c>
@@ -5204,6 +5381,9 @@
       <c r="D58" s="7">
         <v>54.99</v>
       </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
       <c r="F58" s="7">
         <v>27.592900999999998</v>
       </c>
@@ -5242,6 +5422,9 @@
       <c r="D59" s="7">
         <v>37.97</v>
       </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
       <c r="F59" s="7">
         <v>18.584416999999998</v>
       </c>
@@ -5280,6 +5463,9 @@
       <c r="D60" s="7">
         <v>37.14</v>
       </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
       <c r="F60" s="7">
         <v>18.205193999999999</v>
       </c>
@@ -5317,6 +5503,9 @@
       </c>
       <c r="D61" s="7">
         <v>53.710000000000008</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
       </c>
       <c r="F61" s="7">
         <v>26.970073999999997</v>
